--- a/fhir/ig/mfr/ValueSet-VSTipoEstablecimiento.xlsx
+++ b/fhir/ig/mfr/ValueSet-VSTipoEstablecimiento.xlsx
@@ -7,17 +7,16 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Códigos para tip" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Códigos para tip 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from Códigos para tip 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from Códigos para tip 4" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from Códigos para tip 5" r:id="rId8" sheetId="6"/>
+    <sheet name="Include from Tipos de estable" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Tipos de estable 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from Tipos de estable 3" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from Tipos de estable 4" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -34,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -46,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Códigos para tipo de establecimiento de salud</t>
+    <t>Tipos de establecimiento de salud</t>
   </si>
   <si>
     <t>Status</t>
@@ -88,6 +87,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Tipo de establecimiento de salud</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -110,9 +112,6 @@
   </si>
   <si>
     <t>System URI</t>
-  </si>
-  <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/mfr/CodeSystem/CSTiposEstabPub</t>
   </si>
   <si>
     <t>https://interoperabilidad.minsal.cl/fhir/ig/mfr/CodeSystem/CSTiposEstabPubAPS</t>
@@ -361,27 +360,27 @@
         <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -403,28 +402,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -446,28 +445,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -489,28 +488,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -532,68 +531,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>35</v>
